--- a/Software/Список команд от сервера.xlsx
+++ b/Software/Список команд от сервера.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -89,8 +89,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -171,9 +171,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -191,6 +188,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -281,7 +284,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -316,7 +318,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -492,21 +493,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="54" style="4" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="54" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="8" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,297 +515,297 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="75">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" ht="59.25" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" ht="51.75" customHeight="1">
+      <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2" ht="56.25">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2" ht="41.25" customHeight="1">
+      <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2" ht="64.5" customHeight="1">
+      <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="93.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2" ht="93.75">
+      <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2" ht="37.5">
+      <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:2" ht="68.25" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:2" ht="70.5" customHeight="1">
+      <c r="A11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="6"/>
-      <c r="B45" s="7"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="6"/>
-      <c r="B46" s="7"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="6"/>
-      <c r="B47" s="7"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="6"/>
-      <c r="B48" s="7"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="6"/>
-      <c r="B49" s="7"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="6"/>
-      <c r="B50" s="7"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="6"/>
-      <c r="B51" s="7"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="6"/>
-      <c r="B52" s="7"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="6"/>
-      <c r="B53" s="7"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="6"/>
-      <c r="B54" s="7"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="6"/>
-      <c r="B55" s="7"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="6"/>
-      <c r="B56" s="7"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="6"/>
-      <c r="B57" s="7"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="6"/>
-      <c r="B58" s="7"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="6"/>
-      <c r="B59" s="7"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="6"/>
-      <c r="B60" s="7"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="6"/>
-      <c r="B61" s="7"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="6"/>
-      <c r="B62" s="7"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="6"/>
-      <c r="B63" s="7"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="5"/>
-      <c r="B64" s="8"/>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="5"/>
+      <c r="B42" s="6"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="5"/>
+      <c r="B44" s="6"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="5"/>
+      <c r="B45" s="6"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="5"/>
+      <c r="B46" s="6"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="5"/>
+      <c r="B47" s="6"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="5"/>
+      <c r="B48" s="6"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="5"/>
+      <c r="B49" s="6"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="5"/>
+      <c r="B50" s="6"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="5"/>
+      <c r="B51" s="6"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="5"/>
+      <c r="B52" s="6"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="5"/>
+      <c r="B53" s="6"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="5"/>
+      <c r="B54" s="6"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="5"/>
+      <c r="B55" s="6"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="5"/>
+      <c r="B56" s="6"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="5"/>
+      <c r="B57" s="6"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="5"/>
+      <c r="B58" s="6"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="5"/>
+      <c r="B59" s="6"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="5"/>
+      <c r="B60" s="6"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="5"/>
+      <c r="B61" s="6"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="5"/>
+      <c r="B62" s="6"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="5"/>
+      <c r="B63" s="6"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="4"/>
+      <c r="B64" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -813,12 +814,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -826,12 +827,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
